--- a/BalanceSheet/SUI_bal.xlsx
+++ b/BalanceSheet/SUI_bal.xlsx
@@ -5081,7 +5081,7 @@
         <v>3562000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3428000000.0</v>
+        <v>3327933000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>3110413000.0</v>
@@ -5208,7 +5208,7 @@
         <v>3957000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3463000000.0</v>
+        <v>3457490000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3201429000.0</v>
